--- a/SoftwereEnginiring/task_4/BD.xlsx
+++ b/SoftwereEnginiring/task_4/BD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>Запросы</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t xml:space="preserve">Кланы </t>
   </si>
@@ -33,22 +30,79 @@
     <t>Clan ID</t>
   </si>
   <si>
-    <t>Параметры запроса</t>
-  </si>
-  <si>
     <t>Параметры клана</t>
   </si>
   <si>
-    <t>Параметры игрока</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
     <t>JSON(Время игры, Дни в неделю, Язык общения, Список активностей)</t>
   </si>
   <si>
-    <t>Мои предпочтения -&gt;</t>
+    <t>Мои предпочтения</t>
+  </si>
+  <si>
+    <t>Отношения</t>
+  </si>
+  <si>
+    <t>Атрибуты</t>
+  </si>
+  <si>
+    <t>Тип атрибута</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Заявки</t>
+  </si>
+  <si>
+    <t>Параметры заявки:</t>
+  </si>
+  <si>
+    <t>1) Должность в клане</t>
+  </si>
+  <si>
+    <t>2) Тип танка</t>
+  </si>
+  <si>
+    <t>и так далее</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>список Vehicle ID</t>
+  </si>
+  <si>
+    <t>Параметры игрока:</t>
+  </si>
+  <si>
+    <t>1) Процент побед</t>
+  </si>
+  <si>
+    <t>2) Количество боев</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>3) Подтверждение</t>
+  </si>
+  <si>
+    <t>да/нет</t>
+  </si>
+  <si>
+    <t>1) Количество игроков</t>
+  </si>
+  <si>
+    <t>2) Место в рейтинге</t>
+  </si>
+  <si>
+    <t>3) Логотип</t>
+  </si>
+  <si>
+    <t>png файл</t>
   </si>
 </sst>
 </file>
@@ -65,15 +119,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -81,16 +171,193 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -402,77 +669,201 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="13.5" customHeight="1">
-      <c r="C3" t="s">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="28"/>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="28"/>
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="28"/>
+      <c r="C14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="28"/>
+      <c r="C15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="29"/>
+      <c r="C16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="14.25" customHeight="1">
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C17" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D17" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="8"/>
+      <c r="C18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="8"/>
+      <c r="C19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="8"/>
+      <c r="C20" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="8"/>
+      <c r="C21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="60">
+      <c r="B22" s="9"/>
+      <c r="C22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" s="3"/>
-    </row>
+    </row>
+    <row r="23" spans="2:4" ht="69.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F6:F9"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
